--- a/www/IndicatorsPerCountry/Cameroon_GDPperCapita_TerritorialRef_1961_2012_CCode_120.xlsx
+++ b/www/IndicatorsPerCountry/Cameroon_GDPperCapita_TerritorialRef_1961_2012_CCode_120.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Cameroon_GDPperCapita_TerritorialRef_1961_2012_CCode_120.xlsx
+++ b/www/IndicatorsPerCountry/Cameroon_GDPperCapita_TerritorialRef_1961_2012_CCode_120.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>704</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>788</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>832</t>
-  </si>
-  <si>
-    <t>829</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>872</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
-    <t>898</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>946</t>
-  </si>
-  <si>
-    <t>973</t>
-  </si>
-  <si>
-    <t>982</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>1044</t>
-  </si>
-  <si>
     <t>1070</t>
   </si>
   <si>
-    <t>1094</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>1192</t>
-  </si>
-  <si>
-    <t>1351</t>
-  </si>
-  <si>
-    <t>1416</t>
-  </si>
-  <si>
-    <t>1471</t>
-  </si>
-  <si>
-    <t>1537</t>
-  </si>
-  <si>
-    <t>1622</t>
-  </si>
-  <si>
-    <t>1683</t>
-  </si>
-  <si>
-    <t>1550</t>
-  </si>
-  <si>
-    <t>1435</t>
-  </si>
-  <si>
-    <t>1268</t>
-  </si>
-  <si>
-    <t>1211.07324667</t>
-  </si>
-  <si>
-    <t>1132.5347702</t>
-  </si>
-  <si>
-    <t>1067.91467027</t>
-  </si>
-  <si>
-    <t>1006.51601683</t>
-  </si>
-  <si>
-    <t>955.973875486</t>
-  </si>
-  <si>
-    <t>962.953460814</t>
-  </si>
-  <si>
-    <t>986.333198037</t>
-  </si>
-  <si>
-    <t>1011.58142018</t>
-  </si>
-  <si>
-    <t>1037.4122659</t>
-  </si>
-  <si>
-    <t>1057.73025987</t>
-  </si>
-  <si>
-    <t>1076.17004192</t>
-  </si>
-  <si>
-    <t>1098.69827579</t>
-  </si>
-  <si>
-    <t>1115.22674911</t>
-  </si>
-  <si>
-    <t>1132.41910824</t>
-  </si>
-  <si>
-    <t>1147.63153606</t>
-  </si>
-  <si>
-    <t>1147.55116453</t>
-  </si>
-  <si>
-    <t>1157.93589937</t>
-  </si>
-  <si>
-    <t>1170.43495209</t>
-  </si>
-  <si>
-    <t>1173.89451523</t>
-  </si>
-  <si>
-    <t>1170.98197497</t>
-  </si>
-  <si>
-    <t>1179.33674197</t>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1175</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>1283</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>1321</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>1393</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>1508</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>1565</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>1677</t>
+  </si>
+  <si>
+    <t>1664</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1744</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>2153</t>
+  </si>
+  <si>
+    <t>2257</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>2585</t>
+  </si>
+  <si>
+    <t>2683</t>
+  </si>
+  <si>
+    <t>2471</t>
+  </si>
+  <si>
+    <t>2287</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>1833.35445177115</t>
+  </si>
+  <si>
+    <t>1754.2467380351</t>
+  </si>
+  <si>
+    <t>1677.14002614989</t>
+  </si>
+  <si>
+    <t>1615.59727367935</t>
+  </si>
+  <si>
+    <t>1648.64155827783</t>
+  </si>
+  <si>
+    <t>1710.10597530254</t>
+  </si>
+  <si>
+    <t>1780.49669668027</t>
+  </si>
+  <si>
+    <t>1847.2189118451</t>
+  </si>
+  <si>
+    <t>1902.26600633579</t>
+  </si>
+  <si>
+    <t>1961.08786225271</t>
+  </si>
+  <si>
+    <t>2028.54738427422</t>
+  </si>
+  <si>
+    <t>2084.9206379621</t>
+  </si>
+  <si>
+    <t>2143.98004322433</t>
+  </si>
+  <si>
+    <t>2198.23602014264</t>
+  </si>
+  <si>
+    <t>2222.91085339381</t>
+  </si>
+  <si>
+    <t>2269.5179519697</t>
+  </si>
+  <si>
+    <t>2315.60687676106</t>
+  </si>
+  <si>
+    <t>2352.79945998997</t>
+  </si>
+  <si>
+    <t>2370.13051001594</t>
+  </si>
+  <si>
+    <t>2420.1328496142</t>
+  </si>
+  <si>
+    <t>2494</t>
+  </si>
+  <si>
+    <t>2541</t>
+  </si>
+  <si>
+    <t>2612</t>
+  </si>
+  <si>
+    <t>2696</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>2828</t>
   </si>
   <si>
     <t>Description</t>
@@ -1357,6 +1375,108 @@
         <v>67</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1372,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
